--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\InteractiveMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9612D981-E159-455B-BA87-3C772B5E4275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B16E13-4583-4EFE-9122-160267422880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADBBACE5-AAEB-448E-8EB1-2FBDA8F643C6}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>The Corner Cafe</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>FOOD REPUBLIC</t>
   </si>
@@ -51,16 +48,115 @@
     <t>Block B1 Park</t>
   </si>
   <si>
-    <t>Sr.No.</t>
-  </si>
-  <si>
-    <t>Point of interest</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>point_of_interest</t>
+  </si>
+  <si>
+    <t>Sr_no</t>
+  </si>
+  <si>
+    <t>Creative foods</t>
+  </si>
+  <si>
+    <t>La Pino'z Pizza</t>
+  </si>
+  <si>
+    <t>Crunchy Bite</t>
+  </si>
+  <si>
+    <t>Eternal Garden - CU</t>
+  </si>
+  <si>
+    <t>CU Fountain Point</t>
+  </si>
+  <si>
+    <t>Open Air Theater - CU</t>
+  </si>
+  <si>
+    <t>Fountain park Chandigarh University</t>
+  </si>
+  <si>
+    <t>Maggi hotspot</t>
+  </si>
+  <si>
+    <t>(Block-7 CU) A3</t>
+  </si>
+  <si>
+    <t>Burgrill</t>
+  </si>
+  <si>
+    <t>Books And Cooks</t>
+  </si>
+  <si>
+    <t>Denial sculpture studio</t>
+  </si>
+  <si>
+    <t>Block - A2</t>
+  </si>
+  <si>
+    <t>Radio Punjab 90.0</t>
+  </si>
+  <si>
+    <t>University Institute of Architecture</t>
+  </si>
+  <si>
+    <t>University Institute of Media Studies</t>
+  </si>
+  <si>
+    <t>Sukhna Girl's Hostel 1</t>
+  </si>
+  <si>
+    <t>Block A1 , Chandigarh University</t>
+  </si>
+  <si>
+    <t>Block-A1 Parking (For Employees)</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Department of Student Welfare</t>
+  </si>
+  <si>
+    <t>Department of Forensic science</t>
+  </si>
+  <si>
+    <t>Academic Block-B4</t>
+  </si>
+  <si>
+    <t>Kalpana Chawla Space &amp; Research Centre</t>
+  </si>
+  <si>
+    <t>Workshop of Aerospace Engineering Departmen</t>
+  </si>
+  <si>
+    <t>Open Hand Monument Replica</t>
+  </si>
+  <si>
+    <t>cu bird 🐦 park</t>
+  </si>
+  <si>
+    <t>Gate 2 Chandigarh University</t>
+  </si>
+  <si>
+    <t>Dispensary</t>
+  </si>
+  <si>
+    <t>University Institute of Engineering (Block-6 CU)</t>
+  </si>
+  <si>
+    <t>Samosa Express</t>
+  </si>
+  <si>
+    <t>CU Basketball Court</t>
+  </si>
+  <si>
+    <t>JUICE BAR</t>
   </si>
 </sst>
 </file>
@@ -88,18 +184,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9FC5E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -109,7 +199,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FF3D85C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,19 +245,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -472,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA331F2F-1EFE-4877-BA36-EAED6B806003}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,96 +588,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30.769703589999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>76.575521069999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30.770182640000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>76.575869040000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30.769608290000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>76.575515469999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30.76962833</v>
+      </c>
+      <c r="D5" s="2">
+        <v>76.576049179999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30.76879649</v>
+      </c>
+      <c r="D6" s="2">
+        <v>76.577649579999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30.768720439999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>76.577913100000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30.768795910000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>76.577787040000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30.768925800000002</v>
+      </c>
+      <c r="D9" s="2">
+        <v>76.576795970000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>30.76947045</v>
+      </c>
+      <c r="D10" s="2">
+        <v>76.577412409999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>30.769461809999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>76.577549210000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>30.769596159999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>76.577877209999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>30.769350719999998</v>
+      </c>
+      <c r="D13" s="2">
+        <v>76.578253840000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30.769041479999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>76.578429049999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>30.769006910000002</v>
+      </c>
+      <c r="D15" s="2">
+        <v>76.578536999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>30.769305360000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>76.578549170000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30.769200690000002</v>
+      </c>
+      <c r="D17" s="2">
+        <v>76.579246679999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30.769673010000002</v>
+      </c>
+      <c r="D18" s="2">
+        <v>76.579321849999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>30.769847949999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>76.579234749999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>30.769808770000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>76.579429210000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>30.769469409999999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>76.579217319999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>30.770463939999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>76.577955079999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30.771613169999998</v>
+      </c>
+      <c r="D23" s="2">
+        <v>76.578251120000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2">
+        <v>30.771166919999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>76.578884250000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>30.769167599999999</v>
+      </c>
+      <c r="D25" s="2">
+        <v>76.575869549999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>30.76869975</v>
+      </c>
+      <c r="D26" s="2">
+        <v>76.575559760000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <v>30.768790460000002</v>
+      </c>
+      <c r="D27" s="2">
+        <v>76.57636359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2">
+        <v>30.768927049999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>76.574603800000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>30.768791390000001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>76.573959479999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2">
+        <v>30.769289050000001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>76.573837690000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30.769594649999998</v>
+      </c>
+      <c r="D31" s="2">
+        <v>76.575529630000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>30.76964843</v>
+      </c>
+      <c r="D32" s="2">
+        <v>76.576060679999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>30.769188010000001</v>
-      </c>
-      <c r="D2" s="3">
-        <v>76.576306990000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>30.769703589999999</v>
-      </c>
-      <c r="D3" s="4">
-        <v>76.575521069999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>30.770182640000002</v>
-      </c>
-      <c r="D4" s="4">
-        <v>76.575869040000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>30.769608290000001</v>
-      </c>
-      <c r="D5" s="4">
-        <v>76.575515469999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>30.76962833</v>
-      </c>
-      <c r="D6" s="4">
-        <v>76.576049179999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C33" s="2">
+        <v>30.770232010000001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>76.575578859999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2">
+        <v>30.769482960000001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>76.576682770000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2">
+        <v>30.769432259999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>76.576796759999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2">
+        <v>30.77111584</v>
+      </c>
+      <c r="D36" s="2">
+        <v>76.576315399999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2">
+        <v>30.770580970000001</v>
+      </c>
+      <c r="D37" s="2">
+        <v>76.576904080000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2">
+        <v>30.76711667</v>
+      </c>
+      <c r="D38" s="2">
+        <v>76.576314839999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2">
+        <v>30.767596489999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>76.576250259999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2">
+        <v>30.767928359999999</v>
+      </c>
+      <c r="D40" s="2">
+        <v>76.576082619999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2">
+        <v>30.768320159999998</v>
+      </c>
+      <c r="D41" s="2">
+        <v>76.575331599999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
